--- a/public/import/outlet_template (13).xlsx
+++ b/public/import/outlet_template (13).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WANDA FITRIANA PUTRI\SAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5DC8A-BC27-4689-B68A-9AAAC4DF9854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E054608-030C-4F7C-BBCA-640C4A99071E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>badan_usaha</t>
   </si>
@@ -78,19 +78,82 @@
     <t>REALME</t>
   </si>
   <si>
-    <t>BIGKARAWANG</t>
-  </si>
-  <si>
-    <t>KRWASC4</t>
-  </si>
-  <si>
-    <t>SUKABUMI</t>
-  </si>
-  <si>
-    <t>BINJAY CELL (SUKABUMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jl pelabuhan 2, KM 12 desa  sirnaresmi ,simpang tiga pasar pangleseran, kec gunungguruh kab sukabumi</t>
+    <t>BIGBANDUNG</t>
+  </si>
+  <si>
+    <t>BDGASC1</t>
+  </si>
+  <si>
+    <t>BIGCIREBON</t>
+  </si>
+  <si>
+    <t>BIGTASIK</t>
+  </si>
+  <si>
+    <t>BT08327</t>
+  </si>
+  <si>
+    <t>WIJAYA CELL BATUJAJAR</t>
+  </si>
+  <si>
+    <t>JL RAYA BATUJAJAR NO.239 BATUJAJAR TIMUR KEC.BATU</t>
+  </si>
+  <si>
+    <t>BANDUNG</t>
+  </si>
+  <si>
+    <t>CRBASC2</t>
+  </si>
+  <si>
+    <t>BT08320</t>
+  </si>
+  <si>
+    <t>SUMBER KOMSEL</t>
+  </si>
+  <si>
+    <t>JL JENDRAL SUDIRMAN NO.179 CIPANCUH KEC.HAURGEULIS</t>
+  </si>
+  <si>
+    <t>INDRAMAYU</t>
+  </si>
+  <si>
+    <t>BT08156</t>
+  </si>
+  <si>
+    <t>ERHA CELLULAR</t>
+  </si>
+  <si>
+    <t>JL BOJONGWARU NO 84 004/002 RANCAMULYA PAMEUNGPEUK</t>
+  </si>
+  <si>
+    <t>TSKASC1</t>
+  </si>
+  <si>
+    <t>BT08333</t>
+  </si>
+  <si>
+    <t>WRC KOMUNIKA</t>
+  </si>
+  <si>
+    <t>KP PENGYINGKIRAN RT 04/05 DUSUN PATROL DS CIBENDA</t>
+  </si>
+  <si>
+    <t>PANGANDARAN</t>
+  </si>
+  <si>
+    <t>TSKASC2</t>
+  </si>
+  <si>
+    <t>BT08362</t>
+  </si>
+  <si>
+    <t>OKI KOMUNIKA</t>
+  </si>
+  <si>
+    <t>JL. PASAR CILIMUS NO.8 BAYONGBONG GARUT</t>
+  </si>
+  <si>
+    <t>GARUT</t>
   </si>
 </sst>
 </file>
@@ -130,10 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,53 +562,137 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2">
-        <v>317415</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -558,63 +704,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="I16" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/public/import/outlet_template (13).xlsx
+++ b/public/import/outlet_template (13).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WANDA FITRIANA PUTRI\SAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E054608-030C-4F7C-BBCA-640C4A99071E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68AD767-4B0A-442E-8464-4C0D1BA1427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>badan_usaha</t>
   </si>
@@ -72,88 +72,28 @@
     <t>MAINTAIN</t>
   </si>
   <si>
-    <t>CV.TOP</t>
-  </si>
-  <si>
-    <t>REALME</t>
-  </si>
-  <si>
-    <t>BIGBANDUNG</t>
-  </si>
-  <si>
-    <t>BDGASC1</t>
-  </si>
-  <si>
-    <t>BIGCIREBON</t>
-  </si>
-  <si>
-    <t>BIGTASIK</t>
-  </si>
-  <si>
-    <t>BT08327</t>
-  </si>
-  <si>
-    <t>WIJAYA CELL BATUJAJAR</t>
-  </si>
-  <si>
-    <t>JL RAYA BATUJAJAR NO.239 BATUJAJAR TIMUR KEC.BATU</t>
-  </si>
-  <si>
-    <t>BANDUNG</t>
-  </si>
-  <si>
-    <t>CRBASC2</t>
-  </si>
-  <si>
-    <t>BT08320</t>
-  </si>
-  <si>
-    <t>SUMBER KOMSEL</t>
-  </si>
-  <si>
-    <t>JL JENDRAL SUDIRMAN NO.179 CIPANCUH KEC.HAURGEULIS</t>
-  </si>
-  <si>
-    <t>INDRAMAYU</t>
-  </si>
-  <si>
-    <t>BT08156</t>
-  </si>
-  <si>
-    <t>ERHA CELLULAR</t>
-  </si>
-  <si>
-    <t>JL BOJONGWARU NO 84 004/002 RANCAMULYA PAMEUNGPEUK</t>
-  </si>
-  <si>
-    <t>TSKASC1</t>
-  </si>
-  <si>
-    <t>BT08333</t>
-  </si>
-  <si>
-    <t>WRC KOMUNIKA</t>
-  </si>
-  <si>
-    <t>KP PENGYINGKIRAN RT 04/05 DUSUN PATROL DS CIBENDA</t>
-  </si>
-  <si>
-    <t>PANGANDARAN</t>
-  </si>
-  <si>
-    <t>TSKASC2</t>
-  </si>
-  <si>
-    <t>BT08362</t>
-  </si>
-  <si>
-    <t>OKI KOMUNIKA</t>
-  </si>
-  <si>
-    <t>JL. PASAR CILIMUS NO.8 BAYONGBONG GARUT</t>
-  </si>
-  <si>
-    <t>GARUT</t>
+    <t>GG PHONE- REMBANG</t>
+  </si>
+  <si>
+    <t>Jl. HOS Cokroaminota no 7 pertokoan 7c, ds. Sidowayah 01/01, Kec. Rembang, Kabupaten Rembang</t>
+  </si>
+  <si>
+    <t>REMBANG</t>
+  </si>
+  <si>
+    <t>CV. MAJU</t>
+  </si>
+  <si>
+    <t>ZTE</t>
+  </si>
+  <si>
+    <t>BIGSEMARANG</t>
+  </si>
+  <si>
+    <t>ZTESMG3</t>
+  </si>
+  <si>
+    <t>A1.25</t>
   </si>
 </sst>
 </file>
@@ -193,9 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,15 +441,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="102.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -551,160 +494,91 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
